--- a/Code/DoAn3_10122277_12522T.1/src/test/resources/DataOrder.xlsx
+++ b/Code/DoAn3_10122277_12522T.1/src/test/resources/DataOrder.xlsx
@@ -1,110 +1,219 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DoAn3-1012227_12522T.1\Code\DoAn3_10122277_12522T.1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E26C0AC-0E98-492A-B717-E7649321FF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170D768A-E66D-4EE8-94E8-9AAC20066ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B1945A06-E19D-47E2-8B80-29B9EEF0FD1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>SearchKeyword</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Tỉnh</t>
+  </si>
+  <si>
+    <t>Quận</t>
+  </si>
+  <si>
+    <t>Xã</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Mã giảm giá</t>
+  </si>
+  <si>
+    <t>Họ tên</t>
+  </si>
+  <si>
+    <t>PTTT</t>
+  </si>
+  <si>
+    <t>Kết quả mong đợi</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>123 Lê Lợi, P.5</t>
+  </si>
+  <si>
+    <t>Quận 3</t>
+  </si>
+  <si>
+    <t>Phường 5</t>
+  </si>
+  <si>
+    <t>Giao giờ hành chính</t>
+  </si>
+  <si>
+    <t>Thanh toán COD</t>
+  </si>
+  <si>
+    <t>Trần Thị B</t>
+  </si>
+  <si>
+    <t>456 Hai Bà Trưng</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Quận Hoàn Kiếm</t>
+  </si>
+  <si>
+    <t>Phường Hàng Bài</t>
+  </si>
+  <si>
+    <t>Giao trong buổi sáng</t>
+  </si>
+  <si>
+    <t>Chuyển khoản</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Tuổi nước độc</t>
-  </si>
-  <si>
-    <t>a@gmail.com</t>
-  </si>
-  <si>
-    <t>`0909123456</t>
-  </si>
-  <si>
-    <t>Sách</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Anh</t>
-  </si>
-  <si>
-    <t>Lưu Thị Vân</t>
-  </si>
-  <si>
-    <t>van@gmail.com</t>
-  </si>
-  <si>
-    <t>`0389561478</t>
-  </si>
-  <si>
-    <t>Họ và tên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Địa chỉ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghi chú </t>
-  </si>
-  <si>
-    <t>Phường Bến Thành, Quận 1, Thành phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Phường Vĩnh Lộc A, Quận Bình Chánh , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chữ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyẽn Văn Hùng </t>
-  </si>
-  <si>
-    <t>hung189@gmail.com</t>
-  </si>
-  <si>
-    <t>`0977854215</t>
-  </si>
-  <si>
-    <t>Phường Thạch An, Quận
- Cần Giờ , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giao cho tôi </t>
-  </si>
-  <si>
-    <t>Kết quả mong đợi</t>
+    <t>thuthuy@gmail.com</t>
+  </si>
+  <si>
+    <t>hoangvanan@gmail.com</t>
+  </si>
+  <si>
+    <t>Tên sách</t>
+  </si>
+  <si>
+    <t>Quả Chuông Ác Mộng (Bìa mềm) - Sylvia Plath</t>
+  </si>
+  <si>
+    <t>Những Đỉnh Núi Du Ca - TB2025</t>
+  </si>
+  <si>
+    <t>[Sách bìa cứng] Tuyển tập Chekhov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Màu Rừng Ruộng
+</t>
+  </si>
+  <si>
+    <t>R.U.R - Các robot toàn năng của Rossum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số lượng </t>
+  </si>
+  <si>
+    <t>0912345678</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>dothitramy1@gmail.com</t>
+  </si>
+  <si>
+    <t>bapngotreview1424@gmail.com</t>
+  </si>
+  <si>
+    <t>nguyenkim1424@gmail.com</t>
+  </si>
+  <si>
+    <t>Lê Minh C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Thu D </t>
+  </si>
+  <si>
+    <t>Đỗ Hoàng E</t>
+  </si>
+  <si>
+    <t>0938123456</t>
+  </si>
+  <si>
+    <t>0909123987</t>
+  </si>
+  <si>
+    <t>0974567890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">789 Nguyễn Huệ </t>
+  </si>
+  <si>
+    <t>12 Trường Chin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89 Phan Đình Phùng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đà Nẵng </t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phường Thạch Thang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không gọi trước khi giao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quận Ninh Kiều </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phường An Cư </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhận hàng tại nhà </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh toán COD </t>
+  </si>
+  <si>
+    <t>Thành phố Huế</t>
+  </si>
+  <si>
+    <t>Phường Phú Thuận</t>
+  </si>
+  <si>
+    <t>Đặt hàng thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quận Hải Châu </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,7 +221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,6 +233,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF081B3A"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -158,10 +273,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -476,110 +602,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21118D-5A4D-4355-BB10-DFD4199AFEA8}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="1" max="2" width="45.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="12" max="12" width="22.21875" customWidth="1"/>
+    <col min="13" max="13" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2">
-        <v>123</v>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H7" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="mailto:a@gmail.com" xr:uid="{5751A3C3-58C3-42F8-B707-2037A2E90E0C}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{EB0A5D9F-8554-4D2C-920E-D340E902A766}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{250B16D9-B7B5-49E1-8295-959FFB69CD76}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{15362375-674D-4572-AA11-3CBA4C236D79}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{8A583CCD-A032-44E7-B284-B5C643B1C486}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{124559F0-D92B-4671-BA67-C220100C92B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
